--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H2">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.092341333333333</v>
+        <v>0.3806726666666667</v>
       </c>
       <c r="N2">
-        <v>3.277024</v>
+        <v>1.142018</v>
       </c>
       <c r="O2">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="P2">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="Q2">
-        <v>208.2708168294187</v>
+        <v>66.77433796393133</v>
       </c>
       <c r="R2">
-        <v>1874.437351464768</v>
+        <v>600.969041675382</v>
       </c>
       <c r="S2">
-        <v>0.03136802393999168</v>
+        <v>0.01697829196658476</v>
       </c>
       <c r="T2">
-        <v>0.03136802393999168</v>
+        <v>0.01697829196658476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H3">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.439512</v>
       </c>
       <c r="O3">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="P3">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="Q3">
-        <v>27.933125679376</v>
+        <v>25.698476580232</v>
       </c>
       <c r="R3">
-        <v>251.398131114384</v>
+        <v>231.286289222088</v>
       </c>
       <c r="S3">
-        <v>0.004207055834169546</v>
+        <v>0.006534190405770838</v>
       </c>
       <c r="T3">
-        <v>0.004207055834169546</v>
+        <v>0.006534190405770839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H4">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.533112333333333</v>
+        <v>1.310315666666667</v>
       </c>
       <c r="N4">
-        <v>7.599337</v>
+        <v>3.930947</v>
       </c>
       <c r="O4">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="P4">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="Q4">
-        <v>482.9748345913927</v>
+        <v>229.8443487723503</v>
       </c>
       <c r="R4">
-        <v>4346.773511322534</v>
+        <v>2068.599138951153</v>
       </c>
       <c r="S4">
-        <v>0.07274166589688222</v>
+        <v>0.05844108050063173</v>
       </c>
       <c r="T4">
-        <v>0.07274166589688222</v>
+        <v>0.05844108050063174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H5">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I5">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J5">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199477333333333</v>
+        <v>1.604391333333333</v>
       </c>
       <c r="N5">
-        <v>9.598431999999999</v>
+        <v>4.813174</v>
       </c>
       <c r="O5">
-        <v>0.4589409975612385</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="P5">
-        <v>0.4589409975612386</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="Q5">
-        <v>610.0270467722025</v>
+        <v>281.4285828727806</v>
       </c>
       <c r="R5">
-        <v>5490.243420949823</v>
+        <v>2532.857245855026</v>
       </c>
       <c r="S5">
-        <v>0.09187721687799118</v>
+        <v>0.07155708006176315</v>
       </c>
       <c r="T5">
-        <v>0.09187721687799119</v>
+        <v>0.07155708006176317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J6">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.092341333333333</v>
+        <v>0.3806726666666667</v>
       </c>
       <c r="N6">
-        <v>3.277024</v>
+        <v>1.142018</v>
       </c>
       <c r="O6">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="P6">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="Q6">
-        <v>580.1538231851698</v>
+        <v>202.1792055371829</v>
       </c>
       <c r="R6">
-        <v>5221.384408666528</v>
+        <v>1819.612849834646</v>
       </c>
       <c r="S6">
-        <v>0.08737795957969069</v>
+        <v>0.05140683810353338</v>
       </c>
       <c r="T6">
-        <v>0.08737795957969066</v>
+        <v>0.05140683810353339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J7">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.439512</v>
       </c>
       <c r="O7">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="P7">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="Q7">
         <v>77.80979545336265</v>
@@ -883,10 +883,10 @@
         <v>700.288159080264</v>
       </c>
       <c r="S7">
-        <v>0.01171906637570827</v>
+        <v>0.019784208505085</v>
       </c>
       <c r="T7">
-        <v>0.01171906637570827</v>
+        <v>0.01978420850508501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J8">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.533112333333333</v>
+        <v>1.310315666666667</v>
       </c>
       <c r="N8">
-        <v>7.599337</v>
+        <v>3.930947</v>
       </c>
       <c r="O8">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="P8">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="Q8">
-        <v>1345.362259849949</v>
+        <v>695.9222547006898</v>
       </c>
       <c r="R8">
-        <v>12108.26033864954</v>
+        <v>6263.300292306208</v>
       </c>
       <c r="S8">
-        <v>0.2026273110048775</v>
+        <v>0.1769477854312018</v>
       </c>
       <c r="T8">
-        <v>0.2026273110048775</v>
+        <v>0.1769477854312018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J9">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.199477333333333</v>
+        <v>1.604391333333333</v>
       </c>
       <c r="N9">
-        <v>9.598431999999999</v>
+        <v>4.813174</v>
       </c>
       <c r="O9">
-        <v>0.4589409975612385</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="P9">
-        <v>0.4589409975612386</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="Q9">
-        <v>1699.2756297735</v>
+        <v>852.108894458953</v>
       </c>
       <c r="R9">
-        <v>15293.4806679615</v>
+        <v>7668.980050130577</v>
       </c>
       <c r="S9">
-        <v>0.2559308089670413</v>
+        <v>0.2166603823951428</v>
       </c>
       <c r="T9">
-        <v>0.2559308089670412</v>
+        <v>0.2166603823951428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H10">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.092341333333333</v>
+        <v>0.3806726666666667</v>
       </c>
       <c r="N10">
-        <v>3.277024</v>
+        <v>1.142018</v>
       </c>
       <c r="O10">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="P10">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="Q10">
-        <v>165.5534690507164</v>
+        <v>137.0860884837153</v>
       </c>
       <c r="R10">
-        <v>1489.981221456448</v>
+        <v>1233.774796353438</v>
       </c>
       <c r="S10">
-        <v>0.02493429112915455</v>
+        <v>0.03485601962973863</v>
       </c>
       <c r="T10">
-        <v>0.02493429112915455</v>
+        <v>0.03485601962973863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H11">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I11">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J11">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.439512</v>
       </c>
       <c r="O11">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="P11">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="Q11">
-        <v>22.20390704780267</v>
+        <v>52.758346122088</v>
       </c>
       <c r="R11">
-        <v>199.835163430224</v>
+        <v>474.8251150987921</v>
       </c>
       <c r="S11">
-        <v>0.003344168417062851</v>
+        <v>0.01341453365840616</v>
       </c>
       <c r="T11">
-        <v>0.003344168417062851</v>
+        <v>0.01341453365840616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H12">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I12">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J12">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.533112333333333</v>
+        <v>1.310315666666667</v>
       </c>
       <c r="N12">
-        <v>7.599337</v>
+        <v>3.930947</v>
       </c>
       <c r="O12">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="P12">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="Q12">
-        <v>383.9143695119305</v>
+        <v>471.8648464969864</v>
       </c>
       <c r="R12">
-        <v>3455.229325607374</v>
+        <v>4246.783618472877</v>
       </c>
       <c r="S12">
-        <v>0.05782199982256948</v>
+        <v>0.1199781140012348</v>
       </c>
       <c r="T12">
-        <v>0.05782199982256948</v>
+        <v>0.1199781140012348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H13">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I13">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J13">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.199477333333333</v>
+        <v>1.604391333333333</v>
       </c>
       <c r="N13">
-        <v>9.598431999999999</v>
+        <v>4.813174</v>
       </c>
       <c r="O13">
-        <v>0.4589409975612385</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="P13">
-        <v>0.4589409975612386</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="Q13">
-        <v>484.9075609600071</v>
+        <v>577.7660219466927</v>
       </c>
       <c r="R13">
-        <v>4364.168048640064</v>
+        <v>5199.894197520234</v>
       </c>
       <c r="S13">
-        <v>0.07303275712091004</v>
+        <v>0.1469049414504391</v>
       </c>
       <c r="T13">
-        <v>0.07303275712091004</v>
+        <v>0.1469049414504392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H14">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I14">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J14">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.092341333333333</v>
+        <v>0.3806726666666667</v>
       </c>
       <c r="N14">
-        <v>3.277024</v>
+        <v>1.142018</v>
       </c>
       <c r="O14">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="P14">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="Q14">
-        <v>86.36703510159646</v>
+        <v>28.94218222276044</v>
       </c>
       <c r="R14">
-        <v>777.303315914368</v>
+        <v>260.479640004844</v>
       </c>
       <c r="S14">
-        <v>0.01300788687505788</v>
+        <v>0.007358947088229512</v>
       </c>
       <c r="T14">
-        <v>0.01300788687505788</v>
+        <v>0.007358947088229513</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H15">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I15">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J15">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.439512</v>
       </c>
       <c r="O15">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="P15">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="Q15">
-        <v>11.58348194324267</v>
+        <v>11.13856033187733</v>
       </c>
       <c r="R15">
-        <v>104.251337489184</v>
+        <v>100.247042986896</v>
       </c>
       <c r="S15">
-        <v>0.001744608027353611</v>
+        <v>0.002832131851373559</v>
       </c>
       <c r="T15">
-        <v>0.001744608027353611</v>
+        <v>0.00283213185137356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H16">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I16">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J16">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.533112333333333</v>
+        <v>1.310315666666667</v>
       </c>
       <c r="N16">
-        <v>7.599337</v>
+        <v>3.930947</v>
       </c>
       <c r="O16">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="P16">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="Q16">
-        <v>200.2830023301205</v>
+        <v>99.62205883095844</v>
       </c>
       <c r="R16">
-        <v>1802.547020971084</v>
+        <v>896.5985294786259</v>
       </c>
       <c r="S16">
-        <v>0.03016496553624317</v>
+        <v>0.02533027586223206</v>
       </c>
       <c r="T16">
-        <v>0.03016496553624317</v>
+        <v>0.02533027586223206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H17">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I17">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J17">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.199477333333333</v>
+        <v>1.604391333333333</v>
       </c>
       <c r="N17">
-        <v>9.598431999999999</v>
+        <v>4.813174</v>
       </c>
       <c r="O17">
-        <v>0.4589409975612385</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="P17">
-        <v>0.4589409975612386</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="Q17">
-        <v>252.9698023158471</v>
+        <v>121.9803531799435</v>
       </c>
       <c r="R17">
-        <v>2276.728220842624</v>
+        <v>1097.823178619492</v>
       </c>
       <c r="S17">
-        <v>0.03810021459529608</v>
+        <v>0.03101517908863257</v>
       </c>
       <c r="T17">
-        <v>0.03810021459529608</v>
+        <v>0.03101517908863258</v>
       </c>
     </row>
   </sheetData>
